--- a/biology/Botanique/Strobilomyces_foveatus/Strobilomyces_foveatus.xlsx
+++ b/biology/Botanique/Strobilomyces_foveatus/Strobilomyces_foveatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Strobilomyces foveatus  est une espèce de champignons basidiomycètes de la famille des Boletaceae originaire de Malaisie et qui se rencontre également en Australie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chapeau 7 à 10 cm de large, convexe portant de petites pointes brunes de 2 mm de haut environ.
 Tubes portent des pores de 0,5 à 1 mm de diamètre d'abord d'un blanc sale puis gris.
@@ -544,9 +558,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Strobilomyces foveatus Corner, 1972[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Strobilomyces foveatus Corner, 1972.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) E.J.H. Corner, Boletus in Malaysia, 1972, 1-263 p.</t>
         </is>
